--- a/Datasets/promedio_delanteros_ligamx_2022_ultimoano.xlsx
+++ b/Datasets/promedio_delanteros_ligamx_2022_ultimoano.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Documents\RESPALDO\Trabajos\FC Juarez\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C731C827-55D8-4A95-A562-2D6FC42A5521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81859E2-67D8-40E6-810E-2822B0765399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -827,7 +827,7 @@
   <dimension ref="A1:R130"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -836,7 +836,7 @@
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
